--- a/datosretorno/tabla.xlsx
+++ b/datosretorno/tabla.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="145">
   <si>
     <t>Denominación del edificio</t>
   </si>
@@ -1032,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,186 +1422,6 @@
       </c>
       <c r="W7">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1847,89 +1667,113 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>2</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
       </c>
       <c r="M7" t="s">
         <v>72</v>
       </c>
       <c r="N7">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>98</v>
@@ -1938,200 +1782,16 @@
         <v>105</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
         <v>72</v>
       </c>
       <c r="N8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2339,440 +1999,40 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G6" t="s">
         <v>114</v>
       </c>
-      <c r="H7">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J6" t="s">
         <v>72</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K6" t="s">
         <v>116</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L6" t="s">
         <v>119</v>
       </c>
-      <c r="M7">
+      <c r="M6">
         <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2881,48 +2141,72 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3">
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
         <v>128</v>
@@ -2934,498 +2218,54 @@
         <v>72</v>
       </c>
       <c r="M4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" t="s">
         <v>128</v>
       </c>
-      <c r="N4" t="s">
-        <v>134</v>
-      </c>
       <c r="O4">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N7" t="s">
-        <v>128</v>
-      </c>
-      <c r="O7">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="I7" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3433,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3616,437 +2456,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I6" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J6" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K6" t="s">
         <v>144</v>
       </c>
-      <c r="L7">
+      <c r="L6">
         <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
